--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/SOUTH_DAKOTA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/SOUTH_DAKOTA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C35">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C36">
@@ -1004,7 +1004,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C46">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C48">
@@ -1048,7 +1048,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C49">
@@ -1061,7 +1061,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C50">
@@ -1074,7 +1074,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C51">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C52">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C55">
@@ -1178,7 +1178,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C59">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C62">
@@ -1318,7 +1318,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C69">
@@ -1331,7 +1331,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C70">
@@ -1357,7 +1357,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C72">
@@ -1409,7 +1409,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C76">
@@ -1435,7 +1435,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C78">
@@ -1785,7 +1785,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C103">
@@ -1824,7 +1824,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C106">
@@ -1863,7 +1863,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C109">
@@ -1902,7 +1902,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C112">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C122">
@@ -2288,7 +2288,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C139">
@@ -2454,7 +2454,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C151">
@@ -2467,7 +2467,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C152">
@@ -2493,7 +2493,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C154">
@@ -2545,7 +2545,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C158">
@@ -2688,41 +2688,6 @@
       </c>
       <c r="D168">
         <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/SOUTH_DAKOTA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/SOUTH_DAKOTA_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>León</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tlayacapan</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1752,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1783,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1796,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San José Independencia</t>
@@ -1809,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1822,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San Mateo Del Mar</t>
@@ -1835,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1848,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>San Pedro Tapanatepec</t>
@@ -1861,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -1874,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -1887,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -1900,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1944,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -1957,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tenampulco</t>
@@ -1970,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -2066,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2079,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2110,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -2154,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -2167,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2180,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2211,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -2224,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2255,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2286,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -2299,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -2312,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2343,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -2356,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -2369,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -2382,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -2395,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -2408,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2421,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2452,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2465,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -2478,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2491,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2504,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Naolinco</t>
@@ -2517,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Naranjos Amatlán</t>
@@ -2530,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2543,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2556,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2569,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2582,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2613,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -2626,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -2639,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -2652,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2665,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Total</t>
